--- a/data/trans_dic/P55_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse mantener la vivienda con una temperatura adecuada</t>
+          <t>Población que no puede permitirse mantener la vivienda con una temperatura adecuada (tasa de respuesta: 99,19%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>94,07%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,18%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>92,65%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>98,15%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>90,7%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,28; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,19; 98,08</t>
+          <t>70,47; 97,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,71; 98,55</t>
+          <t>86,95; 100,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>83,66; 97,72</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>93,07; 100,0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>82,98; 95,73</t>
         </is>
       </c>
     </row>
@@ -606,17 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>85,53%</t>
+          <t>81,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>91,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,78%</t>
+          <t>89,5%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>85,04%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>90,15%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,09; 94,98</t>
+          <t>45,65; 95,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,24; 95,25</t>
+          <t>79,07; 97,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,87; 93,44</t>
+          <t>77,96; 95,08</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>76,59; 94,84</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>63,29; 93,86</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>82,68; 95,11</t>
         </is>
       </c>
     </row>
@@ -656,17 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>85,1%</t>
+          <t>91,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,37%</t>
+          <t>92,7%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>94,23%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>92,11%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>89,67%</t>
         </is>
       </c>
     </row>
@@ -679,17 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,4; 93,88</t>
+          <t>78,6; 97,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,7; 97,05</t>
+          <t>72,53; 92,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,28; 94,37</t>
+          <t>85,76; 96,67</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>87,01; 97,7</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>86,15; 95,69</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>83,92; 94,33</t>
         </is>
       </c>
     </row>
@@ -706,17 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>83,77%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>82,45%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>88,55%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>88,43%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>91,79%</t>
         </is>
       </c>
     </row>
@@ -729,17 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,97; 98,37</t>
+          <t>88,21; 98,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,19; 88,95</t>
+          <t>87,59; 98,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,04; 92,45</t>
+          <t>73,11; 88,88</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>81,23; 93,9</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>83,69; 92,92</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>87,14; 95,58</t>
         </is>
       </c>
     </row>
@@ -756,17 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>82,64%</t>
+          <t>82,59%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>85,55%</t>
+          <t>74,81%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>78,91%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>84,27%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>80,86%</t>
         </is>
       </c>
     </row>
@@ -779,17 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>81,48; 93,04</t>
+          <t>81,07; 96,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>73,46; 89,53</t>
+          <t>71,13; 90,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,44; 89,67</t>
+          <t>60,18; 85,53</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>63,78; 88,87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>76,31; 89,65</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>72,56; 88,03</t>
         </is>
       </c>
     </row>
@@ -806,17 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>84,12%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>85,57%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>70,39%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>89,56%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>79,85%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>85,7; 97,55</t>
+          <t>83,28; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71,51; 92,0</t>
+          <t>82,01; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,03; 93,16</t>
+          <t>72,78; 94,21</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>45,85; 86,47</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>81,05; 94,86</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>61,2; 90,18</t>
         </is>
       </c>
     </row>
@@ -856,17 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>88,12%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>87,64%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>85,65%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>89,71%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>87,56%</t>
         </is>
       </c>
     </row>
@@ -879,25 +1120,50 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>84,59; 93,85</t>
+          <t>83,24; 95,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84,77; 90,62</t>
+          <t>85,41; 92,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,56; 91,65</t>
+          <t>84,54; 90,65</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>78,58; 89,44</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>85,82; 92,07</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>83,43; 90,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -906,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse mantener la vivienda con una temperatura adecuada (tasa de respuesta: 99,19%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>127558</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>124828</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>115250</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>134801</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>242808</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>259628</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>99189; 136875</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>104192; 119829</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>121718; 142180</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>230250; 247387</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>237546; 274044</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>123425</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>205331</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>110946</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>142892</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>234371</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>348222</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>69223; 145362</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>177045; 218706</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>96641; 117872</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>124356; 154001</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>174420; 258698</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>319390; 367384</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>123604</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>150886</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>184455</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>221831</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>308059</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>372718</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>106466; 132307</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>130739; 166366</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>170636; 192361</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>204830; 230005</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>288103; 320033</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>348823; 392094</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>148136</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>191778</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>138106</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>188378</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>286241</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>380156</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>137788; 154130</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>176408; 198799</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>122452; 148876</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>172806; 199775</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>270897; 300795</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>360892; 395844</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>112373</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>127719</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>67751</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>108146</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>180124</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>235865</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>99867; 118358</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>110006; 139931</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>54506; 77456</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>87413; 121805</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>163109; 191633</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>211670; 256791</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>85142</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>123524</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>94649</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>143678</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>179791</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>267202</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>75063; 90133</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>107040; 130518</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>80498; 104207</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>93585; 176511</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>162692; 190425</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>204800; 301785</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>631.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>622.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>720238</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>924065</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>711157</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>939725</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1431395</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1863790</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>652764; 748437</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>881018; 956050</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>685981; 735554</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>862157; 981287</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1369295; 1469117</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1775882; 1919093</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>